--- a/data/grupos.xlsx
+++ b/data/grupos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sistemas_ia\SalesMasters\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1EDB6F-2380-435C-96F2-C785E5850F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E9BC96-EEA9-4E1E-AC24-739CE869F842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <si>
     <t>GRU_CODIGO</t>
   </si>
@@ -31,19 +31,376 @@
     <t>GRU_PERCOMISS</t>
   </si>
   <si>
-    <t>GID</t>
-  </si>
-  <si>
     <t>SEM GRUPO</t>
   </si>
   <si>
-    <t>URBA</t>
-  </si>
-  <si>
-    <t>BROSOL</t>
-  </si>
-  <si>
-    <t>CARTER</t>
+    <t>LINHA LEVE</t>
+  </si>
+  <si>
+    <t>LINHA DIESEL</t>
+  </si>
+  <si>
+    <t>LINHA INDUSTRIAL</t>
+  </si>
+  <si>
+    <t>LINHA GRAXAS</t>
+  </si>
+  <si>
+    <t>ZUPAN - LÍQUIDO</t>
+  </si>
+  <si>
+    <t>ZUPAN - POLÍTICA</t>
+  </si>
+  <si>
+    <t>ZUPAN - ESPECIAL QTD</t>
+  </si>
+  <si>
+    <t>BANDEJAS</t>
+  </si>
+  <si>
+    <t>TRIZETA</t>
+  </si>
+  <si>
+    <t>TULIPA</t>
+  </si>
+  <si>
+    <t>PONTA DE EIXO</t>
+  </si>
+  <si>
+    <t>CARROCERIA</t>
+  </si>
+  <si>
+    <t>MOTOR</t>
+  </si>
+  <si>
+    <t>MANCAL</t>
+  </si>
+  <si>
+    <t>BARRAS/BRAÇOS</t>
+  </si>
+  <si>
+    <t>DIREÇÃO</t>
+  </si>
+  <si>
+    <t>SELO</t>
+  </si>
+  <si>
+    <t>FREIO/DIREÇÃO</t>
+  </si>
+  <si>
+    <t>CAMBIO/DIF./CARDAN</t>
+  </si>
+  <si>
+    <t>SUSPENSÃO</t>
+  </si>
+  <si>
+    <t>DOBRADIÇA</t>
+  </si>
+  <si>
+    <t>COROA E PINHÃO</t>
+  </si>
+  <si>
+    <t>LUVA CARDAN</t>
+  </si>
+  <si>
+    <t>EMBUCHAMENTO</t>
+  </si>
+  <si>
+    <t>SCANIA</t>
+  </si>
+  <si>
+    <t>PINO MANGA</t>
+  </si>
+  <si>
+    <t>TORÇÃO/FACÃO</t>
+  </si>
+  <si>
+    <t>HOMOCINÉTICA</t>
+  </si>
+  <si>
+    <t>SEMI EIXO</t>
+  </si>
+  <si>
+    <t>JUNTA DESLIZANTE</t>
+  </si>
+  <si>
+    <t>SENSOR ABS</t>
+  </si>
+  <si>
+    <t>ROLAMENTO</t>
+  </si>
+  <si>
+    <t>ROLAMENTO LINHA PESADA</t>
+  </si>
+  <si>
+    <t>CUBO DE RODA</t>
+  </si>
+  <si>
+    <t>CAMBIO/TRAMB.</t>
+  </si>
+  <si>
+    <t>EMBREAGEM</t>
+  </si>
+  <si>
+    <t>CRUZETA</t>
+  </si>
+  <si>
+    <t>UNIVERSAL</t>
+  </si>
+  <si>
+    <t>MULTADAPTER</t>
+  </si>
+  <si>
+    <t>ESPECÍFICA</t>
+  </si>
+  <si>
+    <t>TRASEIRA</t>
+  </si>
+  <si>
+    <t>STANDARD</t>
+  </si>
+  <si>
+    <t>CARGA PESADA</t>
+  </si>
+  <si>
+    <t>HIBRIDA</t>
+  </si>
+  <si>
+    <t>LÍQUIDO LIMPADOR</t>
+  </si>
+  <si>
+    <t>OUTROS</t>
+  </si>
+  <si>
+    <t>COMBINADO C/ VÁLVULA</t>
+  </si>
+  <si>
+    <t>COMBINADO PARA ARREFECIMENTO</t>
+  </si>
+  <si>
+    <t>INJETOR DE COMBUSTIVEL</t>
+  </si>
+  <si>
+    <t>SENSOR DE DISTÂNCIA</t>
+  </si>
+  <si>
+    <t>SENSOR DE NÍVEL DO LÍQUIDO DE ARREFECIMENTO</t>
+  </si>
+  <si>
+    <t>SENSOR TEMPERATURA ÁGUA</t>
+  </si>
+  <si>
+    <t>SENSOR TEMPERATURA AR</t>
+  </si>
+  <si>
+    <t>SENSOR TEMPERATURA AR CONDICIONADO</t>
+  </si>
+  <si>
+    <t>SENSOR TEMPERATURA AR EXTERNO</t>
+  </si>
+  <si>
+    <t>SENSOR TEMPERATURA DO CÂMBIO</t>
+  </si>
+  <si>
+    <t>SENSOR TEMPERATURA DO ÓLEO</t>
+  </si>
+  <si>
+    <t>SENSOR TEMPERATURA EGTS</t>
+  </si>
+  <si>
+    <t>SENSOR TEMPERATURA PAINEL</t>
+  </si>
+  <si>
+    <t>SENSOR TEMPERATURA PARTIDA FRIO</t>
+  </si>
+  <si>
+    <t>TERMO INTERRUPTOR DUPLEX</t>
+  </si>
+  <si>
+    <t>TERMO INTERRUPTOR RADIADOR</t>
+  </si>
+  <si>
+    <t>TERMO INTERRUPTOR SINALIZADOR ADVERTÊNCIA</t>
+  </si>
+  <si>
+    <t>TUBO INJETOR</t>
+  </si>
+  <si>
+    <t>VALVULA TERMOSTÁTICA</t>
+  </si>
+  <si>
+    <t>VÁLVULA TERMOSTÁTICA COM CARCAÇA</t>
+  </si>
+  <si>
+    <t>BATENTES</t>
+  </si>
+  <si>
+    <t>BIELETAS</t>
+  </si>
+  <si>
+    <t>BUCHAS</t>
+  </si>
+  <si>
+    <t>CALÇOS</t>
+  </si>
+  <si>
+    <t>COIFAS / GUARDA-PÓ</t>
+  </si>
+  <si>
+    <t>COXINS DO AMORTECEDOR</t>
+  </si>
+  <si>
+    <t>COXINS DO MOTOR / CÂMBIO</t>
+  </si>
+  <si>
+    <t>ESCAPAMENTOS</t>
+  </si>
+  <si>
+    <t>MOBKITS</t>
+  </si>
+  <si>
+    <t>SUPORTES</t>
+  </si>
+  <si>
+    <t>SUPORTE BANDEJA</t>
+  </si>
+  <si>
+    <t>SUPORTES / BUCHAS</t>
+  </si>
+  <si>
+    <t>SUPORTES DE BANDEJA</t>
+  </si>
+  <si>
+    <t>SUPORTES DO AMORTECEDOR</t>
+  </si>
+  <si>
+    <t>SUPORTES DO MOTOR / CÂMBIO</t>
+  </si>
+  <si>
+    <t>CARBURAÇÃO PEÇAS</t>
+  </si>
+  <si>
+    <t>BOMBA DE COMBUSTÍVEL</t>
+  </si>
+  <si>
+    <t>CARBURADOR</t>
+  </si>
+  <si>
+    <t>BOMBA DE ÓLEO</t>
+  </si>
+  <si>
+    <t>BOMBAS D'AGUA</t>
+  </si>
+  <si>
+    <t>REPARO BOMBAS D'AGUA</t>
+  </si>
+  <si>
+    <t>BRONZINA DE BIELA</t>
+  </si>
+  <si>
+    <t>BRONZINA DE COMANDO</t>
+  </si>
+  <si>
+    <t>ARRUELA DE ENCOSTO</t>
+  </si>
+  <si>
+    <t>BRONZINA MANCAL</t>
+  </si>
+  <si>
+    <t>NACIONAIS</t>
+  </si>
+  <si>
+    <t>BUCHA DE BIELA (SEMI)</t>
+  </si>
+  <si>
+    <t>BUCHA COMANDO (SEMI)</t>
+  </si>
+  <si>
+    <t>CAMISA</t>
+  </si>
+  <si>
+    <t>ANEL</t>
+  </si>
+  <si>
+    <t>P&amp;A</t>
+  </si>
+  <si>
+    <t>KIT</t>
+  </si>
+  <si>
+    <t>BRONZINA DE BIELA (SPUTTER)</t>
+  </si>
+  <si>
+    <t>ATUADOR DE EMBREAGEM AFTEMARKET</t>
+  </si>
+  <si>
+    <t>CILINDRO MESTRE AFTEMARKET</t>
+  </si>
+  <si>
+    <t>SENSOR NOX AFTEMARKET</t>
+  </si>
+  <si>
+    <t>SERVO EMBREAGEM AFTMARKET</t>
+  </si>
+  <si>
+    <t>KIT SERVO</t>
+  </si>
+  <si>
+    <t>SERVOS AVULSOS</t>
+  </si>
+  <si>
+    <t>KITS DE REPARAÇÃO</t>
+  </si>
+  <si>
+    <t>COMPONENTES</t>
+  </si>
+  <si>
+    <t>PRATO</t>
+  </si>
+  <si>
+    <t>MANETE FREIO DE MÃO</t>
+  </si>
+  <si>
+    <t>SECADOR DE AR</t>
+  </si>
+  <si>
+    <t>HASTE</t>
+  </si>
+  <si>
+    <t>PISTÃO PNEUMÁTICO</t>
+  </si>
+  <si>
+    <t>GARFO</t>
+  </si>
+  <si>
+    <t>VÁLVULA PROTETORA</t>
+  </si>
+  <si>
+    <t>VÁLVULA PILOTO</t>
+  </si>
+  <si>
+    <t>TAMPA RESERVATÓRIO</t>
+  </si>
+  <si>
+    <t>ALONGADORES</t>
+  </si>
+  <si>
+    <t>CONECTOR</t>
+  </si>
+  <si>
+    <t>BLOCO DE VÁLVULA</t>
+  </si>
+  <si>
+    <t>SELETOR DE MARCHAS</t>
+  </si>
+  <si>
+    <t>VOLANTE DE MOTOR</t>
+  </si>
+  <si>
+    <t>DIVERSOS</t>
+  </si>
+  <si>
+    <t>LINHA PESADA - IMA</t>
   </si>
 </sst>
 </file>
@@ -79,8 +436,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -386,19 +744,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="50" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -408,40 +767,1027 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>111</v>
+      </c>
+      <c r="C110" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>111</v>
+      </c>
+      <c r="B111" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <v>112</v>
+      </c>
+      <c r="B112" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <v>113</v>
+      </c>
+      <c r="B113" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
+        <v>114</v>
+      </c>
+      <c r="B114" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <v>115</v>
+      </c>
+      <c r="B115" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
+        <v>116</v>
+      </c>
+      <c r="B116" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
+        <v>117</v>
+      </c>
+      <c r="B117" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
+        <v>118</v>
+      </c>
+      <c r="B118" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
+        <v>119</v>
+      </c>
+      <c r="B119" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>120</v>
+      </c>
+      <c r="B120" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
+        <v>121</v>
+      </c>
+      <c r="B121" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>122</v>
+      </c>
+      <c r="B122" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
+        <v>123</v>
+      </c>
+      <c r="B123" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>124</v>
+      </c>
+      <c r="B124" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <v>125</v>
+      </c>
+      <c r="B125" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
